--- a/examples/ex200.Ei.xlsx
+++ b/examples/ex200.Ei.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AF8F4A-1C79-405C-83A5-8EC1EEF00D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30909B4-949D-41C1-9BA6-C67290ABC94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="4035" windowWidth="28800" windowHeight="15435" xr2:uid="{3A6CA629-65E1-410E-83AD-6E4AF192F45F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{3A6CA629-65E1-410E-83AD-6E4AF192F45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ei" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -232,7 +232,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -719,7 +719,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1407,7 +1407,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4099,9 +4099,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4139,7 +4139,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4245,7 +4245,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4402,9 +4402,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4413,25 +4413,25 @@
       </c>
       <c r="G1" t="str" cm="1">
         <f t="array" ref="G1">[1]!unf_version()</f>
-        <v>7.31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D9" s="3">
         <f t="shared" ref="D9:D30" si="0">D10*scale</f>
         <v>-3.5489186893244544</v>
@@ -4457,7 +4457,7 @@
         <v>-6.5610639435711013E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>-2.6702703289952293E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>-1.6879518141852339</v>
@@ -4480,7 +4480,7 @@
         <v>-7.5961831032166346E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>-1.1641046994380924</v>
@@ -4490,7 +4490,7 @@
         <v>-0.16772247932292347</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>-0.80283082719868448</v>
@@ -4500,7 +4500,7 @@
         <v>-0.30901166223303989</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>-0.55367643255081689</v>
@@ -4510,7 +4510,7 @@
         <v>-0.49952738640639749</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>-0.38184581555228753</v>
@@ -4520,7 +4520,7 @@
         <v>-0.73380144492129795</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>-0.26334194176019832</v>
@@ -4530,7 +4530,7 @@
         <v>-1.0040574871647103</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>-0.18161513224841264</v>
@@ -4540,7 +4540,7 @@
         <v>-1.3023407308127544</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>-0.12525181534373286</v>
@@ -4550,7 +4550,7 @@
         <v>-1.6216498423363281</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>-8.6380562306022673E-2</v>
@@ -4560,7 +4560,7 @@
         <v>-1.9563273344078054</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>-5.9572801590360464E-2</v>
@@ -4570,7 +4570,7 @@
         <v>-2.3020376807870897</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>-4.1084690751972734E-2</v>
@@ -4580,7 +4580,7 @@
         <v>-2.6555705757902328</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>-2.8334269484119129E-2</v>
@@ -4590,7 +4590,7 @@
         <v>-3.014602425038909</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>-1.9540875506289055E-2</v>
@@ -4600,7 +4600,7 @@
         <v>-3.3774769896924814</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>-1.3476465866406245E-2</v>
@@ -4610,7 +4610,7 @@
         <v>-3.7430259167676194</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>-9.2941143906249968E-3</v>
@@ -4620,7 +4620,7 @@
         <v>-4.1104308392598572</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>-6.4097340624999985E-3</v>
@@ -4630,7 +4630,7 @@
         <v>-4.4791213094205444</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>-4.4205062499999993E-3</v>
@@ -4640,7 +4640,7 @@
         <v>-4.8487010141767417</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>-3.0486249999999997E-3</v>
@@ -4650,7 +4650,7 @@
         <v>-5.2188952478277839</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>-2.1024999999999998E-3</v>
@@ -4660,7 +4660,7 @@
         <v>-5.5895138966052125</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>-1.4499999999999999E-3</v>
@@ -4670,7 +4670,7 @@
         <v>-5.9604255321924438</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D31" s="5">
         <f>-D32</f>
         <v>-1E-3</v>
@@ -4680,7 +4680,7 @@
         <v>-6.331539364136149</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D32" s="6">
         <f>1/1000</f>
         <v>1E-3</v>
@@ -4690,7 +4690,7 @@
         <v>-6.3295393640250381</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="3">
         <f t="shared" ref="D33:D51" si="1">D32*scale</f>
         <v>1.4499999999999999E-3</v>
@@ -4700,7 +4700,7 @@
         <v>-5.9575255318537073</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D34" s="3">
         <f t="shared" si="1"/>
         <v>2.1024999999999998E-3</v>
@@ -4710,7 +4710,7 @@
         <v>-5.5853088955725321</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D35" s="3">
         <f t="shared" si="1"/>
         <v>3.0486249999999997E-3</v>
@@ -4720,7 +4720,7 @@
         <v>-5.2127979946795309</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" s="3">
         <f t="shared" si="1"/>
         <v>4.4205062499999993E-3</v>
@@ -4730,7 +4730,7 @@
         <v>-4.8398599920788952</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D37" s="3">
         <f t="shared" si="1"/>
         <v>6.4097340624999985E-3</v>
@@ -4740,7 +4740,7 @@
         <v>-4.4663018120352929</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D38" s="3">
         <f t="shared" si="1"/>
         <v>9.2941143906249968E-3</v>
@@ -4750,7 +4750,7 @@
         <v>-4.091842521274951</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D39" s="3">
         <f t="shared" si="1"/>
         <v>1.3476465866406245E-2</v>
@@ -4760,7 +4760,7 @@
         <v>-3.7160727130855329</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D40" s="3">
         <f t="shared" si="1"/>
         <v>1.9540875506289055E-2</v>
@@ -4770,7 +4770,7 @@
         <v>-3.3383944096035676</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D41" s="3">
         <f t="shared" si="1"/>
         <v>2.8334269484119129E-2</v>
@@ -4780,7 +4780,7 @@
         <v>-2.9579313584959053</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D42" s="3">
         <f t="shared" si="1"/>
         <v>4.1084690751972734E-2</v>
@@ -4790,7 +4790,7 @@
         <v>-2.5733934884540517</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D43" s="3">
         <f t="shared" si="1"/>
         <v>5.9572801590360464E-2</v>
@@ -4800,7 +4800,7 @@
         <v>-2.1828685841019722</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D44" s="3">
         <f t="shared" si="1"/>
         <v>8.6380562306022673E-2</v>
@@ -4810,7 +4810,7 @@
         <v>-1.7834945785031118</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D45" s="3">
         <f t="shared" si="1"/>
         <v>0.12525181534373286</v>
@@ -4820,7 +4820,7 @@
         <v>-1.3709277807963711</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D46" s="3">
         <f t="shared" si="1"/>
         <v>0.18161513224841264</v>
@@ -4830,7 +4830,7 @@
         <v>-0.93844420690473229</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D47" s="3">
         <f t="shared" si="1"/>
         <v>0.26334194176019832</v>
@@ -4840,7 +4840,7 @@
         <v>-0.47534021097689483</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D48" s="3">
         <f t="shared" si="1"/>
         <v>0.38184581555228753</v>
@@ -4850,7 +4850,7 @@
         <v>3.6103479236438682E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D49" s="3">
         <f t="shared" si="1"/>
         <v>0.55367643255081689</v>
@@ -4860,7 +4860,7 @@
         <v>0.62685913136260385</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D50" s="3">
         <f t="shared" si="1"/>
         <v>0.80283082719868448</v>
@@ -4870,7 +4870,7 @@
         <v>1.355268930857128</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D51" s="3">
         <f t="shared" si="1"/>
         <v>1.1641046994380924</v>
@@ -4880,7 +4880,7 @@
         <v>2.3430599688075597</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D58" s="7" t="s">
         <v>4</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D59" s="3">
         <f>1/1000</f>
         <v>1E-3</v>
@@ -4905,7 +4905,7 @@
         <v>6.3305552789821364</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D60" s="3">
         <f t="shared" ref="D60:D91" si="2">D59*$C$6</f>
         <v>1.4499999999999999E-3</v>
@@ -4919,7 +4919,7 @@
         <v>5.958991722549654</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D61" s="3">
         <f t="shared" si="2"/>
         <v>2.1024999999999998E-3</v>
@@ -4933,7 +4933,7 @@
         <v>5.5874281661171707</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D62" s="3">
         <f t="shared" si="2"/>
         <v>3.0486249999999997E-3</v>
@@ -4947,7 +4947,7 @@
         <v>5.2158646096846875</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D63" s="3">
         <f t="shared" si="2"/>
         <v>4.4205062499999993E-3</v>
@@ -4961,7 +4961,7 @@
         <v>4.8443010532522051</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D64" s="3">
         <f t="shared" si="2"/>
         <v>6.4097340624999985E-3</v>
@@ -4975,7 +4975,7 @@
         <v>4.4727374968197218</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D65" s="3">
         <f t="shared" si="2"/>
         <v>9.2941143906249968E-3</v>
@@ -4989,7 +4989,7 @@
         <v>4.1011739403872385</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D66" s="3">
         <f t="shared" si="2"/>
         <v>1.3476465866406245E-2</v>
@@ -5003,7 +5003,7 @@
         <v>3.7296103839547565</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D67" s="3">
         <f t="shared" si="2"/>
         <v>1.9540875506289055E-2</v>
@@ -5017,7 +5017,7 @@
         <v>3.3580468275222732</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D68" s="3">
         <f t="shared" si="2"/>
         <v>2.8334269484119129E-2</v>
@@ -5031,7 +5031,7 @@
         <v>2.9864832710897904</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D69" s="3">
         <f t="shared" si="2"/>
         <v>4.1084690751972734E-2</v>
@@ -5045,7 +5045,7 @@
         <v>2.6149197146573071</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D70" s="3">
         <f t="shared" si="2"/>
         <v>5.9572801590360464E-2</v>
@@ -5059,7 +5059,7 @@
         <v>2.2433561582248243</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D71" s="3">
         <f t="shared" si="2"/>
         <v>8.6380562306022673E-2</v>
@@ -5073,7 +5073,7 @@
         <v>1.8717926017923414</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D72" s="3">
         <f t="shared" si="2"/>
         <v>0.12525181534373286</v>
@@ -5087,7 +5087,7 @@
         <v>1.5002290453598581</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D73" s="3">
         <f t="shared" si="2"/>
         <v>0.18161513224841264</v>
@@ -5101,7 +5101,7 @@
         <v>1.1286654889273753</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D74" s="3">
         <f t="shared" si="2"/>
         <v>0.26334194176019832</v>
@@ -5115,7 +5115,7 @@
         <v>0.7571019324948921</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D75" s="3">
         <f t="shared" si="2"/>
         <v>0.38184581555228753</v>
@@ -5129,7 +5129,7 @@
         <v>0.38553837606240926</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D76" s="3">
         <f t="shared" si="2"/>
         <v>0.55367643255081689</v>
@@ -5143,7 +5143,7 @@
         <v>1.3974819629926305E-2</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D77" s="3">
         <f t="shared" si="2"/>
         <v>0.80283082719868448</v>
@@ -5157,7 +5157,7 @@
         <v>-0.35758873680255676</v>
       </c>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D78" s="3">
         <f t="shared" si="2"/>
         <v>1.1641046994380924</v>
@@ -5171,7 +5171,7 @@
         <v>-0.72915229323503972</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D79" s="3">
         <f t="shared" si="2"/>
         <v>1.6879518141852339</v>
@@ -5185,7 +5185,7 @@
         <v>-1.1007158496675227</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D80" s="3">
         <f t="shared" si="2"/>
         <v>2.4475301305685893</v>
@@ -5199,7 +5199,7 @@
         <v>-1.4722794061000057</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D81" s="3">
         <f t="shared" si="2"/>
         <v>3.5489186893244544</v>
@@ -5213,7 +5213,7 @@
         <v>-1.8438429625324888</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D82" s="3">
         <f t="shared" si="2"/>
         <v>5.1459320995204587</v>
@@ -5227,7 +5227,7 @@
         <v>-2.2154065189649716</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D83" s="3">
         <f t="shared" si="2"/>
         <v>7.4616015443046653</v>
@@ -5241,7 +5241,7 @@
         <v>-2.5869700753974549</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D84" s="3">
         <f t="shared" si="2"/>
         <v>10.819322239241764</v>
@@ -5255,7 +5255,7 @@
         <v>-2.9585336318299378</v>
       </c>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D85" s="3">
         <f t="shared" si="2"/>
         <v>15.688017246900557</v>
@@ -5269,7 +5269,7 @@
         <v>-3.3300971882624206</v>
       </c>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D86" s="3">
         <f t="shared" si="2"/>
         <v>22.747625008005809</v>
@@ -5283,7 +5283,7 @@
         <v>-3.7016607446949039</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D87" s="3">
         <f t="shared" si="2"/>
         <v>32.984056261608423</v>
@@ -5297,7 +5297,7 @@
         <v>-4.0732243011273868</v>
       </c>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D88" s="3">
         <f t="shared" si="2"/>
         <v>47.826881579332209</v>
@@ -5311,7 +5311,7 @@
         <v>-4.44478785755987</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D89" s="3">
         <f t="shared" si="2"/>
         <v>69.348978290031695</v>
@@ -5325,28 +5325,28 @@
         <v>-4.8163514139923533</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D90" s="3">
         <f t="shared" si="2"/>
         <v>100.55601852054596</v>
       </c>
       <c r="E90" s="4">
         <f>[1]!E_1(D90)</f>
-        <v>2.1009304756177275E-46</v>
+        <v>0</v>
       </c>
       <c r="F90" s="4">
         <f t="shared" si="4"/>
         <v>-5.1879149704248366</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D91" s="3">
         <f t="shared" si="2"/>
         <v>145.80622685479165</v>
       </c>
       <c r="E91" s="4">
         <f>[1]!E_1(D91)</f>
-        <v>3.239184287919966E-66</v>
+        <v>0</v>
       </c>
       <c r="F91" s="4">
         <f t="shared" si="4"/>
